--- a/biology/Zoologie/Denver,_le_dernier_dinosaure/Denver,_le_dernier_dinosaure.xlsx
+++ b/biology/Zoologie/Denver,_le_dernier_dinosaure/Denver,_le_dernier_dinosaure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Denver, le dernier dinosaure (Denver, the Last Dinosaur) est une série télévisée d'animation franco-américaine en 52 épisodes de 26 minutes, créée par Peter Keefe et réalisée par Tom Burton. Coproduite par IDDH, World Events Productions, Calico Productions et FR3, elle a été diffusée aux États-Unis du 12 septembre au 22 novembre 1988 en syndication.
 En France, la série a été diffusée à partir du 20 mars 1989 sur FR3 dans l'émission Samdynamite, puis dans l'émission Les Minikeums et T O 3. Elle a été aussi rediffusée en 2008 sur France 5 dans l'émission Bonsoir les Zouzous et, brièvement, en 2007 sur Direct 8. Au Québec, à partir du 1er novembre 1989 à Super Écran, puis rediffusée à partir du 4 décembre 1990 au Canal Famille.
-Une nouvelle version de Denver est diffusée sur M6 à partir du 27 août 2018 dans M6 Kids[1],[2].
+Une nouvelle version de Denver est diffusée sur M6 à partir du 27 août 2018 dans M6 Kids,.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une bande d'adolescents californiens (Wally, Jérémy, Charlie et Mario) découvre sur un terrain vague un œuf de dinosaure. Cet œuf donnera naissance à un dinosaure vert — un Corythosaurus — qu'ils appelleront Denver.
 Denver est un dinosaure hors norme qui aime la guitare et le skateboard. Il peut voyager dans la préhistoire grâce à un morceau de sa coquille.
@@ -546,7 +560,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Denver, the Last Dinosaur
 Titre français : Denver, le dernier dinosaure
@@ -601,16 +617,55 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Voix originales
-Pat Fraley : Denver
+          <t>Voix originales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pat Fraley : Denver
 Adam Carl : Wally Adams, Jeremy Anderson
 Rob Paulsen : Nick, Chet
 Cam Clarke : Mario, Shades, Charlie, Freddy Facknitts
 Kath Soucie : Heather Adams, Laurie, Casey
 Brian Cummings : Morton Fizzback, Pr Funt
-June Foray : Bertha
-Voix françaises
-Jean-Claude Donda : Denver (onomatopées), Freddy Facknitts, Pr Funt et voix diverses
+June Foray : Bertha</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Denver,_le_dernier_dinosaure</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denver,_le_dernier_dinosaure</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jean-Claude Donda : Denver (onomatopées), Freddy Facknitts, Pr Funt et voix diverses
 Nicole Raucher : Wally Adams
 Pierre Laurent : Jeremy Anderson, Nick
 Jean-Louis Faure : Mario
@@ -619,35 +674,37 @@
 Laurent Hilling : Morton Fizzback
 Danièle Hazan : la narratrice, Bertha, John (épisode 26), tante Adèle (épisodes 37 et 43)
 Loïc Baugin : Allan (épisodes 5, 13, 17 et 40), Kim (épisode 7), Scott (épisode 10), Louden (épisode 39)
- Source et légende : version française (VF) sur RS Doublage[3] et Planète Jeunesse[4]</t>
+ Source et légende : version française (VF) sur RS Doublage et Planète Jeunesse</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Denver,_le_dernier_dinosaure</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Denver,_le_dernier_dinosaure</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La Naissance de Denver (Denver, the Last Dino)
 Denver découvre le monde
@@ -704,37 +761,6 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Denver,_le_dernier_dinosaure</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Denver,_le_dernier_dinosaure</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après le succès du film Le Petit Dinosaure et la Vallée des merveilles (1988), IDDH et World Events Productions mettent en chantier une série mettant en vedette un jeune dinosaure. Denver, le dernier dinosaure est aussi la conséquence des quotas de production française imposés à la fin des années 1980. Selon Bruno-René Huchez qui a supervisé la production en France, Ted Koplar patron de World Events Productions était intéressé par les subventions françaises du CNC. Huchez a ainsi réussi à imposer que notamment les storyboards et layouts soient réalisés à Angoulême[5].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
@@ -756,13 +782,48 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après le succès du film Le Petit Dinosaure et la Vallée des merveilles (1988), IDDH et World Events Productions mettent en chantier une série mettant en vedette un jeune dinosaure. Denver, le dernier dinosaure est aussi la conséquence des quotas de production française imposés à la fin des années 1980. Selon Bruno-René Huchez qui a supervisé la production en France, Ted Koplar patron de World Events Productions était intéressé par les subventions françaises du CNC. Huchez a ainsi réussi à imposer que notamment les storyboards et layouts soient réalisés à Angoulême.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Denver,_le_dernier_dinosaure</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denver,_le_dernier_dinosaure</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Version 2018</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une  nouvelle version est diffusée sur M6 depuis le 27 août 2018 dans M6 Kid[1],[2].
-De même, en octobre 2023 un spectacle au théâtre de la Renaissance vit le jour. Il se jouait chaque samedi et dimanche[6].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une  nouvelle version est diffusée sur M6 depuis le 27 août 2018 dans M6 Kid,.
+De même, en octobre 2023 un spectacle au théâtre de la Renaissance vit le jour. Il se jouait chaque samedi et dimanche.
 </t>
         </is>
       </c>
